--- a/data/trans_dic/P07B_R2_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P07B_R2_2023-Provincia-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9776534434618883</v>
+        <v>0.9776534434618886</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9592054578671322</v>
+        <v>0.959205457867132</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.968469906235929</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9573580261467584</v>
+        <v>0.9579231799896092</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9406384588512191</v>
+        <v>0.9410218438464103</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9558508580821083</v>
+        <v>0.9560884769642113</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.989230702575837</v>
+        <v>0.9898912628096816</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9738205512335817</v>
+        <v>0.9726572500797727</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9779937593218127</v>
+        <v>0.9783714515398882</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.9379722117213005</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9439912609980904</v>
+        <v>0.9439912609980902</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9233810906751687</v>
+        <v>0.921193023429747</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9178049063444544</v>
+        <v>0.9172909038023914</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9286883180361141</v>
+        <v>0.9286107935575761</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9697065451766527</v>
+        <v>0.9703930249737058</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9529086219628854</v>
+        <v>0.9528999445805627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9566608976798531</v>
+        <v>0.9563971242452164</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9369030787420369</v>
+        <v>0.936903078742037</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9036501793892744</v>
+        <v>0.9036501793892743</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9192779187981596</v>
+        <v>0.9192779187981595</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9099016884089758</v>
+        <v>0.9121682769003588</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8787347576515779</v>
+        <v>0.8737968679522002</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9012156434128433</v>
+        <v>0.9011380639422608</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9570316434175022</v>
+        <v>0.9580363870663915</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9269392803447633</v>
+        <v>0.9260651619459153</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9354222701619381</v>
+        <v>0.935347448434408</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.8827519455057535</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8908763950745455</v>
+        <v>0.8908763950745454</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8566347859305379</v>
+        <v>0.8592441378746054</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8521014076283289</v>
+        <v>0.8528029510925398</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8696668861732172</v>
+        <v>0.8653581632215724</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9347495965197961</v>
+        <v>0.931899435774996</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.906680681776909</v>
+        <v>0.9060644583823998</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9132345807953788</v>
+        <v>0.9113255000617646</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.9758028586317758</v>
+        <v>0.9758028586317761</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.9357687720867299</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9547425577954052</v>
+        <v>0.9547425577954051</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9550045864907469</v>
+        <v>0.953961787276165</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9135435290956226</v>
+        <v>0.9137375505742339</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9382708781835017</v>
+        <v>0.9394070529033184</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9876328447115671</v>
+        <v>0.9889173695786514</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9541447894512884</v>
+        <v>0.9562652009738021</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9663984432323584</v>
+        <v>0.9666706939091457</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.907635870583378</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.9050837178107481</v>
+        <v>0.9050837178107478</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9063764040645702</v>
+        <v>0.9063764040645703</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8754688932328204</v>
+        <v>0.8720478346696584</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8757604095138171</v>
+        <v>0.8746292544406105</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8857067792170733</v>
+        <v>0.8870685826590307</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9331255772086963</v>
+        <v>0.9327047497392389</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9271447420737292</v>
+        <v>0.9281469070822349</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9226285873581404</v>
+        <v>0.9239270980713709</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.9196116492175198</v>
+        <v>0.9196116492175199</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8551138990821303</v>
+        <v>0.8551138990821305</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8862306329125483</v>
+        <v>0.8862306329125486</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8925070555660006</v>
+        <v>0.8934517244817261</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8288286775575882</v>
+        <v>0.8301209518755044</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8691722446882277</v>
+        <v>0.8699119940672062</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9402189370729743</v>
+        <v>0.9408974497331321</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8772954477804183</v>
+        <v>0.875636265479688</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9021379087971296</v>
+        <v>0.9012652331843872</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.931048581570746</v>
+        <v>0.9289310436193458</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8877457465775466</v>
+        <v>0.8877160610087752</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9142658750314741</v>
+        <v>0.9135789461179005</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9622478886807487</v>
+        <v>0.9616077305266395</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9214217747394762</v>
+        <v>0.9222245686582549</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9378323286495228</v>
+        <v>0.9374207615901756</v>
       </c>
     </row>
     <row r="28">
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.9377184747389137</v>
+        <v>0.9377184747389139</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.9034356351702182</v>
+        <v>0.9034356351702181</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.9200970439029104</v>
+        <v>0.9200970439029105</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9277182413802069</v>
+        <v>0.9280569831685138</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8956165434081854</v>
+        <v>0.8954244506289587</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.9140673933132939</v>
+        <v>0.9144719136465607</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9455166784921518</v>
+        <v>0.9459422474153786</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9124535931559196</v>
+        <v>0.9115770360848944</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9260013833738482</v>
+        <v>0.9259598859826716</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>305249</v>
+        <v>305429</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>297299</v>
+        <v>297420</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>606875</v>
+        <v>607026</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>315411</v>
+        <v>315622</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>307787</v>
+        <v>307419</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>620934</v>
+        <v>621174</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>489989</v>
+        <v>488828</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>501575</v>
+        <v>501294</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1000328</v>
+        <v>1000245</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>514572</v>
+        <v>514936</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>520759</v>
+        <v>520754</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1030459</v>
+        <v>1030175</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>287523</v>
+        <v>288239</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>313164</v>
+        <v>311405</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>605955</v>
+        <v>605903</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>302415</v>
+        <v>302733</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>330344</v>
+        <v>330032</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>628955</v>
+        <v>628904</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>319649</v>
+        <v>320623</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>359554</v>
+        <v>359850</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>691478</v>
+        <v>688052</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>348797</v>
+        <v>347734</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>382584</v>
+        <v>382324</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>726119</v>
+        <v>724601</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>196411</v>
+        <v>196197</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>208545</v>
+        <v>208589</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>407159</v>
+        <v>407652</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>203122</v>
+        <v>203386</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>217813</v>
+        <v>218297</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>419365</v>
+        <v>419483</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>236996</v>
+        <v>236069</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>230982</v>
+        <v>230683</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>473372</v>
+        <v>474100</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>252604</v>
+        <v>252490</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>244534</v>
+        <v>244799</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>493105</v>
+        <v>493799</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>642326</v>
+        <v>643006</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>639903</v>
+        <v>640901</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1296582</v>
+        <v>1297686</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>676663</v>
+        <v>677152</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>677322</v>
+        <v>676041</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1345759</v>
+        <v>1344457</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>743044</v>
+        <v>741354</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>738011</v>
+        <v>737986</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1489708</v>
+        <v>1488588</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>767943</v>
+        <v>767432</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>766006</v>
+        <v>766674</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1528107</v>
+        <v>1527436</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>3277408</v>
+        <v>3278604</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>3346308</v>
+        <v>3345590</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>6644429</v>
+        <v>6647369</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3340285</v>
+        <v>3341789</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3409217</v>
+        <v>3405942</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>6731178</v>
+        <v>6730876</v>
       </c>
     </row>
     <row r="40">
